--- a/data/trans_orig/P14B28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1B4063-E3C3-4345-9569-6F0CA434E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6885889-8B36-4908-8CB7-B8EF0C5EAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC3A4B7-FA36-44AC-ADDF-4A96FDD47CA8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{621CBDFB-C5CD-4C4E-A9B4-C42F21536E11}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="333">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>70,0%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>30,0%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -136,55 +136,55 @@
     <t>87,7%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -193,55 +193,55 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -250,55 +250,55 @@
     <t>54,75%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -307,109 +307,109 @@
     <t>85,78%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -421,319 +421,319 @@
     <t>42,71%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>50,97%</t>
+    <t>50,18%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>49,03%</t>
+    <t>49,82%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>26,67%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
@@ -742,319 +742,301 @@
     <t>95,73%</t>
   </si>
   <si>
-    <t>79,34%</t>
+    <t>78,71%</t>
   </si>
   <si>
     <t>72,04%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>20,66%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>70,87%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>29,13%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>74,05%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>69,99%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>30,01%</t>
   </si>
   <si>
     <t>61,29%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>9,27%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>38,71%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>90,73%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>78,23%</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>83,29%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>16,71%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708834E-3FB8-482A-8D5F-99BF6B0D8F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF931E7D-78CB-4363-B68E-8282B9BD3544}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2529,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FE90AE-7B37-40B0-A778-163189B795D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF91F2-DEBC-4AE8-9CBB-2797427CA4A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3592,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120C9D4-9659-4E96-8894-74A03DE4C9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA05CE-BD94-4F7D-90FC-35CD1D2E5810}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4062,7 +4044,7 @@
         <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4059,13 @@
         <v>10460</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -4092,13 +4074,13 @@
         <v>36531</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -4107,13 +4089,13 @@
         <v>46991</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4163,13 @@
         <v>24221</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -4196,13 +4178,13 @@
         <v>63004</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -4211,13 +4193,13 @@
         <v>87225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4214,13 @@
         <v>15296</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4247,13 +4229,13 @@
         <v>130155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -4262,13 +4244,13 @@
         <v>145451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4318,13 @@
         <v>45419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -4351,13 +4333,13 @@
         <v>141824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -4366,13 +4348,13 @@
         <v>187243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4369,13 @@
         <v>15836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4402,13 +4384,13 @@
         <v>39475</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -4417,13 +4399,13 @@
         <v>55311</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4473,13 @@
         <v>134649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>711</v>
@@ -4506,13 +4488,13 @@
         <v>407179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>884</v>
@@ -4521,13 +4503,13 @@
         <v>541828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4524,13 @@
         <v>49765</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4557,13 +4539,13 @@
         <v>245952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>312</v>
@@ -4572,13 +4554,13 @@
         <v>295717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6885889-8B36-4908-8CB7-B8EF0C5EAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{181F8C91-15BE-4FA6-BF72-C72CF010CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{621CBDFB-C5CD-4C4E-A9B4-C42F21536E11}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DE80AEE-995D-4C3D-8DC4-06D41995C0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="337">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,19 +85,19 @@
     <t>70,0%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,190 +115,190 @@
     <t>30,0%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -307,673 +307,685 @@
     <t>85,78%</t>
   </si>
   <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2016 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>27,13%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
   </si>
   <si>
     <t>22,8%</t>
@@ -1448,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF931E7D-78CB-4363-B68E-8282B9BD3544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4365AE04-3B9F-44F0-BD22-10C8BE5C201D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2511,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF91F2-DEBC-4AE8-9CBB-2797427CA4A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E45B45-8FF2-4F96-B458-A9D871B45BBD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3574,7 +3586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA05CE-BD94-4F7D-90FC-35CD1D2E5810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA06EC0-2954-4222-BDC1-E9C6D561AA0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,10 +3868,10 @@
         <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3868,13 +3880,13 @@
         <v>75062</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>182</v>
@@ -3883,13 +3895,13 @@
         <v>94594</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3916,13 @@
         <v>7714</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -3919,13 +3931,13 @@
         <v>30854</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -3934,13 +3946,13 @@
         <v>38567</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4020,13 @@
         <v>35157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -4023,13 +4035,13 @@
         <v>104256</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -4038,13 +4050,13 @@
         <v>139413</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4071,13 @@
         <v>10460</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -4074,13 +4086,13 @@
         <v>36531</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -4089,10 +4101,10 @@
         <v>46991</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>282</v>
@@ -4184,7 +4196,7 @@
         <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -4193,13 +4205,13 @@
         <v>87225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4226,13 @@
         <v>15296</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4229,13 +4241,13 @@
         <v>130155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -4244,13 +4256,13 @@
         <v>145451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>45419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -4333,13 +4345,13 @@
         <v>141824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -4348,13 +4360,13 @@
         <v>187243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4381,13 @@
         <v>15836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4384,13 +4396,13 @@
         <v>39475</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -4399,13 +4411,13 @@
         <v>55311</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4485,13 @@
         <v>134649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>711</v>
@@ -4488,13 +4500,13 @@
         <v>407179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>884</v>
@@ -4503,13 +4515,13 @@
         <v>541828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4536,13 @@
         <v>49765</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4539,13 +4551,13 @@
         <v>245952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>312</v>
@@ -4554,13 +4566,13 @@
         <v>295717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
